--- a/DataTest/SampleTestData.xlsx
+++ b/DataTest/SampleTestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22C6E1-B738-4961-9E50-491BAF609C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EB6E0-2995-41B6-B6B6-AC2EF5EF7712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hybrid" sheetId="2" r:id="rId1"/>
-    <sheet name="KeyWordDrivenNew" sheetId="4" r:id="rId2"/>
-    <sheet name="KeyWordDriven" sheetId="3" r:id="rId3"/>
-    <sheet name="DataDriven" sheetId="1" r:id="rId4"/>
+    <sheet name="Products" sheetId="5" r:id="rId1"/>
+    <sheet name="Hybrid" sheetId="2" r:id="rId2"/>
+    <sheet name="KeyWordDrivenNew" sheetId="4" r:id="rId3"/>
+    <sheet name="KeyWordDriven" sheetId="3" r:id="rId4"/>
+    <sheet name="DataDriven" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Hello, Mahmudul</t>
   </si>
@@ -170,6 +171,24 @@
   </si>
   <si>
     <t>Hello,Mahmud</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Hand Sanitizer</t>
+  </si>
+  <si>
+    <t>Iphone 11 pro max</t>
+  </si>
+  <si>
+    <t>hand soap</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>shirt</t>
   </si>
 </sst>
 </file>
@@ -522,6 +541,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA12BACB-E40E-4C9D-8265-08BE670C7E4A}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95395E84-CCBB-4D1D-B5C3-E33C54652F16}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -671,12 +736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469180C-3CCD-49D6-B626-080CCC93AEBE}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4791DAE-0403-4E84-9B62-81C201A9EFD1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -856,7 +921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
